--- a/Gantt_chart.xlsx
+++ b/Gantt_chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ebuka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ebuka\advanced-project-semester-1-group-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAFBABF-B48F-4EB7-AA8F-D305907F8EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F0FB4B-DF50-45F9-A7FC-207C73A54B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EC0B35B9-2F35-42BD-AABE-38E59294CF90}"/>
   </bookViews>
@@ -1077,16 +1077,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2095499</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1414,7 +1414,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
